--- a/Groups_Creation_Excel_Template.xlsx
+++ b/Groups_Creation_Excel_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\powershell\4.ExO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1B00B-23B9-47DD-A840-6548DA8F0C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0297CFE3-F99F-40F3-81A6-A52468A55130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7AA5BEBA-1168-4B46-B3EF-2EF8689CBE24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AA5BEBA-1168-4B46-B3EF-2EF8689CBE24}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft 365 Group" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>DisplayName</t>
   </si>
@@ -139,6 +139,45 @@
   </si>
   <si>
     <t>mesgr01@example.com</t>
+  </si>
+  <si>
+    <t>This is 1st Microsoft 365 Group</t>
+  </si>
+  <si>
+    <t>This is 2nd Microsoft 365 Group</t>
+  </si>
+  <si>
+    <t>This is 1st distribution list</t>
+  </si>
+  <si>
+    <t>This is 1st mail-enabled security group</t>
+  </si>
+  <si>
+    <t>Allowed Specified Senders</t>
+  </si>
+  <si>
+    <t>Allowed External Sender</t>
+  </si>
+  <si>
+    <t>Allowed Send On Behalf</t>
+  </si>
+  <si>
+    <t>Configure Delivery Management</t>
+  </si>
+  <si>
+    <t>AlexW@example.com,AdeleV@example.com</t>
+  </si>
+  <si>
+    <t>Configure SendOnBehalf Permission</t>
+  </si>
+  <si>
+    <t>DL 02</t>
+  </si>
+  <si>
+    <t>dl02</t>
+  </si>
+  <si>
+    <t>This is 2st distribution list</t>
   </si>
 </sst>
 </file>
@@ -189,15 +228,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -211,17 +279,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9863130C-E39A-45AE-986B-3568AE288BC6}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3" xr:uid="{9863130C-E39A-45AE-986B-3568AE288BC6}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9863130C-E39A-45AE-986B-3568AE288BC6}" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{9863130C-E39A-45AE-986B-3568AE288BC6}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{36BEB5A1-724B-4E03-A2A5-DE96A64CEDE4}" name="Alias"/>
     <tableColumn id="2" xr3:uid="{25FEB4EA-00A8-4A8E-B0B9-DB85FC09FB20}" name="PrimarySmtpAddress"/>
     <tableColumn id="3" xr3:uid="{42916790-47EA-4410-AC6C-76D69982F256}" name="DisplayName"/>
+    <tableColumn id="8" xr3:uid="{F3AFC83C-A31C-48EA-A363-14A424EC22EB}" name="Description"/>
     <tableColumn id="4" xr3:uid="{ED55E7D9-B5DF-48BA-AAD9-C3DFCB1BB936}" name="AccessType"/>
     <tableColumn id="5" xr3:uid="{C2C96B22-2E6C-4FA6-9927-F83E706C6B3F}" name="Owner"/>
     <tableColumn id="6" xr3:uid="{1757CBAA-5B9C-4167-8E4D-40910CD32C4B}" name="Members"/>
-    <tableColumn id="7" xr3:uid="{C43251EB-B238-4D45-9E5F-93E4C0576F94}" name="Creation Command">
-      <calculatedColumnFormula>CONCATENATE("New-UnifiedGroup -Alias ",A2," -PrimarySmtpAddress ",B2," -DisplayName ",CHAR(34),C2,CHAR(34)," -AccessType ",D2," -Owner ",E2," -Members ",F2)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{C43251EB-B238-4D45-9E5F-93E4C0576F94}" name="Creation Command" dataDxfId="3">
+      <calculatedColumnFormula>CONCATENATE("New-UnifiedGroup -Alias ",A2," -PrimarySmtpAddress ",B2," -DisplayName ",CHAR(34),C2,CHAR(34)," -AccessType ",E2," -Owner ",F2," -Members ",G2," -Notes ",CHAR(34),D2,CHAR(34))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -229,17 +298,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EAB097A-3CEA-487C-8EB4-2FDD66DECC7C}" name="Table2" displayName="Table2" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{9EAB097A-3CEA-487C-8EB4-2FDD66DECC7C}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EAB097A-3CEA-487C-8EB4-2FDD66DECC7C}" name="Table2" displayName="Table2" ref="A1:M3" totalsRowShown="0">
+  <autoFilter ref="A1:M3" xr:uid="{9EAB097A-3CEA-487C-8EB4-2FDD66DECC7C}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8E9D9A95-D951-4C51-ADE7-FC0CA2669315}" name="Name"/>
     <tableColumn id="2" xr3:uid="{0E3C435A-FFCF-4120-B3CF-D9FF079FD18E}" name="Alias"/>
     <tableColumn id="3" xr3:uid="{A10506AF-251D-4DEC-BB63-0A5068E068A5}" name="PrimarySmtpAddress"/>
     <tableColumn id="4" xr3:uid="{E9A9C486-ED7D-4BC2-B552-9BE4BB3477FC}" name="DisplayName"/>
+    <tableColumn id="8" xr3:uid="{70EB9F48-4D51-4512-9D6E-250E71645C22}" name="Description"/>
     <tableColumn id="5" xr3:uid="{FC61997E-0B2D-4BE8-BF8B-2BFE95216E3F}" name="ManagedBy"/>
     <tableColumn id="6" xr3:uid="{D61EF6B4-67E7-4022-A6B0-0A70472D83C4}" name="Members"/>
+    <tableColumn id="11" xr3:uid="{14A2CBC4-215E-466E-BB8A-4D3983AC6913}" name="Allowed External Sender"/>
+    <tableColumn id="9" xr3:uid="{D200094B-3EF7-4C4C-8953-E5BB9F057D2E}" name="Allowed Specified Senders" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{08E46CC7-7E3C-41D0-806C-F88527004054}" name="Allowed Send On Behalf" dataDxfId="2" dataCellStyle="Hyperlink"/>
     <tableColumn id="7" xr3:uid="{82202CCA-4461-4239-A17C-4AA7D2B99F3F}" name="Creation Command">
-      <calculatedColumnFormula>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A2,CHAR(34)," -Alias ",B2," -PrimarySmtpAddress ",C2," -DisplayName ",CHAR(34),D2,CHAR(34)," -Type Distribution -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",E2," -Members ",F2)</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A2,CHAR(34)," -Alias ",B2," -PrimarySmtpAddress ",C2," -DisplayName ",CHAR(34),D2,CHAR(34)," -Type Distribution -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",F2," -Members ",G2," -Notes ",CHAR(34),E2,CHAR(34))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{F3DBC4C7-89AB-4C2A-B7C8-C2A8A8047D23}" name="Configure Delivery Management">
+      <calculatedColumnFormula>CONCATENATE("Set-DistributionGroup -Identity ", C2, " -RequireSenderAuthenticationEnabled $", H2, " -AcceptMessagesOnlyFromSendersOrMembers ", IF(I2="", "$null", I2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{219228BF-FE3D-436D-9E94-28E40E71047D}" name="Configure SendOnBehalf Permission">
+      <calculatedColumnFormula>CONCATENATE("Set-DistributionGroup -Identity ",C2," -GrantSendOnBehalfTo ",IF(J2="","$null",J2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -247,17 +326,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B86B4C1-7281-460C-AD3A-5CFAEE1D7CE7}" name="Table3" displayName="Table3" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{2B86B4C1-7281-460C-AD3A-5CFAEE1D7CE7}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B86B4C1-7281-460C-AD3A-5CFAEE1D7CE7}" name="Table3" displayName="Table3" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{2B86B4C1-7281-460C-AD3A-5CFAEE1D7CE7}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{FDD18659-913B-4069-9BA4-99729367ACB0}" name="Name"/>
     <tableColumn id="2" xr3:uid="{06491181-0464-40CE-BA7D-8BAE2B949110}" name="Alias"/>
     <tableColumn id="3" xr3:uid="{433B8895-FCD5-4C8A-B481-0BF8F2779410}" name="PrimarySmtpAddress"/>
     <tableColumn id="4" xr3:uid="{167A76BD-EDEB-4833-8DE2-9BF76F7BAC74}" name="DisplayName"/>
+    <tableColumn id="8" xr3:uid="{012C196C-BB02-4CC5-8056-F2C25C12B4E6}" name="Description"/>
     <tableColumn id="5" xr3:uid="{07C6B04C-57EC-4A54-A91F-C9678D37FD2B}" name="ManagedBy"/>
     <tableColumn id="6" xr3:uid="{7ED5F1D1-23F2-4046-AC85-7A5A019DAF97}" name="Members"/>
+    <tableColumn id="11" xr3:uid="{0D661259-B67F-45BC-90C7-7BCCFE58AD1F}" name="Allowed External Sender"/>
+    <tableColumn id="10" xr3:uid="{41EE8FB7-0E50-4577-9BE4-77397CDAE637}" name="Allowed Specified Senders" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{80C0A64A-6208-4D0E-ADF2-5666FC36343F}" name="Allowed Send On Behalf" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{396BD350-D62F-41E2-8AB3-F6F99340BA8C}" name="Creation Command">
-      <calculatedColumnFormula>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A2,CHAR(34)," -Alias ",B2," -PrimarySmtpAddress ",C2," -DisplayName ",CHAR(34),D2,CHAR(34)," -Type Security -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",E2," -Members ",F2)</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A2,CHAR(34)," -Alias ",B2," -PrimarySmtpAddress ",C2," -DisplayName ",CHAR(34),D2,CHAR(34)," -Type Security -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",F2," -Members ",G2," -Notes ",CHAR(34),E2,CHAR(34))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{CD66556D-E058-4CE4-965D-BE007ED5E804}" name="Configure Delivery Management">
+      <calculatedColumnFormula>CONCATENATE("Set-DistributionGroup -Identity ", C2, " -RequireSenderAuthenticationEnabled $", H2, " -AcceptMessagesOnlyFromSendersOrMembers ", IF(I2="", "$null", I2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{AF48A712-2596-4672-972A-102EC8A147D0}" name="Configure SendOnBehalf Permission">
+      <calculatedColumnFormula>CONCATENATE("Set-DistributionGroup -Identity ",C2," -GrantSendOnBehalfTo ",IF(J2="","$null",J2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -576,20 +665,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B801CB76-93F6-43F1-A918-4848D6DEE3BE}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -600,19 +690,22 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -623,20 +716,23 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE("New-UnifiedGroup -Alias ",A2," -PrimarySmtpAddress ",B2," -DisplayName ",CHAR(34),C2,CHAR(34)," -AccessType ",D2," -Owner ",E2," -Members ",F2)</f>
-        <v>New-UnifiedGroup -Alias M365Group1 -PrimarySmtpAddress m365group1@example.com -DisplayName "Microsot 365 Group 1" -AccessType Private -Owner admin@example.com -Members abc@example.com,AdeleV@example.com</v>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H3" si="0">CONCATENATE("New-UnifiedGroup -Alias ",A2," -PrimarySmtpAddress ",B2," -DisplayName ",CHAR(34),C2,CHAR(34)," -AccessType ",E2," -Owner ",F2," -Members ",G2," -Notes ",CHAR(34),D2,CHAR(34))</f>
+        <v>New-UnifiedGroup -Alias M365Group1 -PrimarySmtpAddress m365group1@example.com -DisplayName "Microsot 365 Group 1" -AccessType Private -Owner admin@example.com -Members abc@example.com,AdeleV@example.com -Notes "This is 1st Microsoft 365 Group"</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -647,17 +743,20 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="str">
-        <f>CONCATENATE("New-UnifiedGroup -Alias ",A3," -PrimarySmtpAddress ",B3," -DisplayName ",CHAR(34),C3,CHAR(34)," -AccessType ",D3," -Owner ",E3," -Members ",F3)</f>
-        <v>New-UnifiedGroup -Alias M365Group2 -PrimarySmtpAddress m365group2@example.com -DisplayName "Microsot 365 Group 2" -AccessType Public -Owner admin@example.com -Members abc@example.com,AdeleV@example.com</v>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>New-UnifiedGroup -Alias M365Group2 -PrimarySmtpAddress m365group2@example.com -DisplayName "Microsot 365 Group 2" -AccessType Public -Owner admin@example.com -Members abc@example.com,AdeleV@example.com -Notes "This is 2nd Microsoft 365 Group"</v>
       </c>
     </row>
   </sheetData>
@@ -675,10 +774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E711F2-9740-4E4D-B57F-0E0C66D5D9F0}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,9 +786,10 @@
     <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -703,16 +803,34 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -726,17 +844,78 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A2,CHAR(34)," -Alias ",B2," -PrimarySmtpAddress ",C2," -DisplayName ",CHAR(34),D2,CHAR(34)," -Type Distribution -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",E2," -Members ",F2)</f>
-        <v>New-DistributionGroup -Name "DL 01" -Alias dl01 -PrimarySmtpAddress dl01@example.com -DisplayName "DL 01" -Type Distribution -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy AlexW@example.com,AllanD@example.com -Members abc@example.com,AdeleV@example.com</v>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A2,CHAR(34)," -Alias ",B2," -PrimarySmtpAddress ",C2," -DisplayName ",CHAR(34),D2,CHAR(34)," -Type Distribution -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",F2," -Members ",G2," -Notes ",CHAR(34),E2,CHAR(34))</f>
+        <v>New-DistributionGroup -Name "DL 01" -Alias dl01 -PrimarySmtpAddress dl01@example.com -DisplayName "DL 01" -Type Distribution -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy AlexW@example.com,AllanD@example.com -Members abc@example.com,AdeleV@example.com -Notes "This is 1st distribution list"</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE("Set-DistributionGroup -Identity ", C2, " -RequireSenderAuthenticationEnabled $", H2, " -AcceptMessagesOnlyFromSendersOrMembers ", IF(I2="", "$null", I2))</f>
+        <v>Set-DistributionGroup -Identity dl01@example.com -RequireSenderAuthenticationEnabled $TRUE -AcceptMessagesOnlyFromSendersOrMembers AlexW@example.com,AdeleV@example.com</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE("Set-DistributionGroup -Identity ",C2," -GrantSendOnBehalfTo ",IF(J2="","$null",J2))</f>
+        <v>Set-DistributionGroup -Identity dl01@example.com -GrantSendOnBehalfTo AlexW@example.com,AdeleV@example.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" t="str">
+        <f>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A3,CHAR(34)," -Alias ",B3," -PrimarySmtpAddress ",C3," -DisplayName ",CHAR(34),D3,CHAR(34)," -Type Distribution -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",F3," -Members ",G3," -Notes ",CHAR(34),E3,CHAR(34))</f>
+        <v>New-DistributionGroup -Name "DL 02" -Alias dl02 -PrimarySmtpAddress dl01@example.com -DisplayName "DL 02" -Type Distribution -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy AlexW@example.com,AllanD@example.com -Members abc@example.com,AdeleV@example.com -Notes "This is 2st distribution list"</v>
+      </c>
+      <c r="L3" t="str">
+        <f>CONCATENATE("Set-DistributionGroup -Identity ", C3, " -RequireSenderAuthenticationEnabled $", H3, " -AcceptMessagesOnlyFromSendersOrMembers ", IF(I3="", "$null", I3))</f>
+        <v>Set-DistributionGroup -Identity dl01@example.com -RequireSenderAuthenticationEnabled $FALSE -AcceptMessagesOnlyFromSendersOrMembers $null</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE("Set-DistributionGroup -Identity ",C3," -GrantSendOnBehalfTo ",IF(J3="","$null",J3))</f>
+        <v>Set-DistributionGroup -Identity dl01@example.com -GrantSendOnBehalfTo $null</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -746,23 +925,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C112CF-8811-4859-863D-7054863A8CDF}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -776,16 +952,34 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -799,14 +993,34 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A2,CHAR(34)," -Alias ",B2," -PrimarySmtpAddress ",C2," -DisplayName ",CHAR(34),D2,CHAR(34)," -Type Security -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",E2," -Members ",F2)</f>
-        <v>New-DistributionGroup -Name "MES Group 01" -Alias mesgr01 -PrimarySmtpAddress mesgr01@example.com -DisplayName "MES Group 01" -Type Security -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy AlexW@example.com,AllanD@example.com -Members abc@example.com,AdeleV@example.com</v>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE("New-DistributionGroup -Name ",CHAR(34),A2,CHAR(34)," -Alias ",B2," -PrimarySmtpAddress ",C2," -DisplayName ",CHAR(34),D2,CHAR(34)," -Type Security -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy ",F2," -Members ",G2," -Notes ",CHAR(34),E2,CHAR(34))</f>
+        <v>New-DistributionGroup -Name "MES Group 01" -Alias mesgr01 -PrimarySmtpAddress mesgr01@example.com -DisplayName "MES Group 01" -Type Security -RequireSenderAuthenticationEnabled $true -MemberDepartRestriction Closed -MemberJoinRestriction Closed -ManagedBy AlexW@example.com,AllanD@example.com -Members abc@example.com,AdeleV@example.com -Notes "This is 1st mail-enabled security group"</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE("Set-DistributionGroup -Identity ", C2, " -RequireSenderAuthenticationEnabled $", H2, " -AcceptMessagesOnlyFromSendersOrMembers ", IF(I2="", "$null", I2))</f>
+        <v>Set-DistributionGroup -Identity mesgr01@example.com -RequireSenderAuthenticationEnabled $TRUE -AcceptMessagesOnlyFromSendersOrMembers AlexW@example.com,AdeleV@example.com</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE("Set-DistributionGroup -Identity ",C2," -GrantSendOnBehalfTo ",IF(J2="","$null",J2))</f>
+        <v>Set-DistributionGroup -Identity mesgr01@example.com -GrantSendOnBehalfTo AlexW@example.com,AdeleV@example.com</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60BBA73-3E7B-4587-8F6E-C819DEBA2EE3}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
